--- a/07-julio/6-portal-cliente/debarrenechea/DEBA.xlsx
+++ b/07-julio/6-portal-cliente/debarrenechea/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\1_DEBARRENECHEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\debarrenechea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF9C2B-8FBE-4459-923C-2E5560329F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E742988-974F-490D-A53A-427EC0FF8D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28650" yWindow="840" windowWidth="27360" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>BONO</t>
   </si>
   <si>
-    <t>JUNIO Y SAC 2025</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>JULIO 2025</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,30 +425,30 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,8 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +799,7 @@
     </row>
     <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
@@ -817,7 +815,7 @@
       <c r="H4" s="1"/>
       <c r="K4" s="6">
         <f>+K6+20000</f>
-        <v>649565.04999999993</v>
+        <v>652172.64</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
@@ -859,15 +857,15 @@
         <v>7</v>
       </c>
       <c r="C6" s="10">
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
         <f>+C6+D6</f>
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="F6" s="10">
-        <v>50513.85</v>
+        <v>22966.6</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -880,23 +878,22 @@
       </c>
       <c r="J6" s="10">
         <f>+F6+G6+H6+I6</f>
-        <v>50513.85</v>
+        <v>22966.6</v>
       </c>
       <c r="K6" s="10">
         <f>+E6+J6</f>
-        <v>629565.04999999993</v>
+        <v>632172.64</v>
       </c>
       <c r="L6" s="10">
         <f>+K6*2</f>
-        <v>1259130.0999999999</v>
+        <v>1264345.28</v>
       </c>
       <c r="M6" s="10">
         <f>+E6+F6+G6+H6</f>
-        <v>629565.04999999993</v>
+        <v>632172.64</v>
       </c>
       <c r="N6" s="4">
-        <f>+M6*2</f>
-        <v>1259130.0999999999</v>
+        <v>1261378.68</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -907,15 +904,15 @@
         <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10">
         <f>+C7+D7</f>
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="F7" s="10">
-        <v>51085.7</v>
+        <v>23226.6</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -928,23 +925,22 @@
       </c>
       <c r="J7" s="10">
         <f>+F7+G7+H7+I7</f>
-        <v>51085.7</v>
+        <v>23226.6</v>
       </c>
       <c r="K7" s="10">
         <f>+E7+J7</f>
-        <v>701608.7699999999</v>
+        <v>639286.19999999995</v>
       </c>
       <c r="L7" s="10">
         <f>+K7*2</f>
-        <v>1403217.5399999998</v>
+        <v>1278572.3999999999</v>
       </c>
       <c r="M7" s="10">
         <f>+E7+F7+G7+H7</f>
-        <v>701608.7699999999</v>
+        <v>639286.19999999995</v>
       </c>
       <c r="N7" s="4">
-        <f>+M7*2</f>
-        <v>1403217.5399999998</v>
+        <v>1275345.8</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -974,7 +970,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12">
         <f>SUM(C6:C8)</f>
-        <v>1229574.27</v>
+        <v>1225265.6400000001</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D6:D8)</f>
@@ -982,11 +978,11 @@
       </c>
       <c r="E9" s="10">
         <f>+C9+D9</f>
-        <v>1229574.27</v>
+        <v>1225265.6400000001</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ref="F9:K9" si="0">SUM(F6:F8)</f>
-        <v>101599.54999999999</v>
+        <v>46193.2</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -996,23 +992,23 @@
       </c>
       <c r="J9" s="12">
         <f>SUM(J6:J8)</f>
-        <v>101599.54999999999</v>
+        <v>46193.2</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>1331173.8199999998</v>
+        <v>1271458.8399999999</v>
       </c>
       <c r="L9" s="12">
         <f>SUM(L6:L8)</f>
-        <v>2662347.6399999997</v>
+        <v>2542917.6799999997</v>
       </c>
       <c r="M9" s="12">
         <f>SUM(M6:M8)</f>
-        <v>1331173.8199999998</v>
+        <v>1271458.8399999999</v>
       </c>
       <c r="N9" s="12">
         <f>SUM(N6:N8)</f>
-        <v>2662347.6399999997</v>
+        <v>2536724.48</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1033,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
@@ -1274,509 +1270,482 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="38">
+        <v>15</v>
+      </c>
+      <c r="C21" s="30">
         <f>+J6</f>
-        <v>50513.85</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="38">
+        <v>22966.6</v>
+      </c>
+      <c r="E21" s="30">
         <f>+G13</f>
         <v>25256.93</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23">
+      <c r="G21" s="5">
         <f>+C21+E21</f>
-        <v>75770.78</v>
-      </c>
-      <c r="H21" s="24"/>
+        <v>48223.53</v>
+      </c>
+      <c r="H21" s="22"/>
       <c r="I21" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="16">
         <f>+F7</f>
-        <v>51085.7</v>
+        <v>23226.6</v>
       </c>
       <c r="K21" s="17"/>
-      <c r="L21" s="39">
+      <c r="L21" s="31">
         <v>25542.85</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="18">
         <f>+J21+L21</f>
-        <v>76628.549999999988</v>
+        <v>48769.45</v>
       </c>
       <c r="O21" s="19"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="13">
         <f>+K6</f>
-        <v>629565.04999999993</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>632172.64</v>
+      </c>
       <c r="E23" s="13">
         <f>+K13</f>
         <v>314782.52999999997</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="13">
         <f>+K7</f>
-        <v>701608.7699999999</v>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
+        <v>639286.19999999995</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="24"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
-      <c r="C26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="13">
         <f>+C6</f>
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="G26" s="13">
         <f>+D13</f>
         <v>289525.59999999998</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="25">
         <f>+F26+G26</f>
-        <v>868576.79999999993</v>
+        <v>898731.64</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="J26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="13">
         <f>+C7</f>
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="N26" s="13">
         <f>+D14</f>
         <v>325261.53999999998</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="25">
         <f>+M26+N26</f>
-        <v>975784.60999999987</v>
+        <v>941321.1399999999</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
-      <c r="C27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="13">
         <f>+C6</f>
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="G27" s="13">
         <f>+D13</f>
         <v>289525.59999999998</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="25">
         <f t="shared" ref="H27:H35" si="3">+F27+G27</f>
-        <v>868576.79999999993</v>
+        <v>898731.64</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="J27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="13">
         <f>+C7</f>
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="N27" s="13">
         <f>+D14</f>
         <v>325261.53999999998</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="25">
         <f t="shared" ref="O27:O35" si="4">+M27+N27</f>
-        <v>975784.60999999987</v>
+        <v>941321.1399999999</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
-      <c r="C28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="13">
         <f>+C6</f>
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="G28" s="13">
         <f>+D13</f>
         <v>289525.59999999998</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="25">
         <f t="shared" si="3"/>
-        <v>868576.79999999993</v>
+        <v>898731.64</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="J28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="13">
         <f>+C7</f>
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="N28" s="13">
         <f>+D14</f>
         <v>325261.53999999998</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="25">
         <f t="shared" si="4"/>
-        <v>975784.60999999987</v>
+        <v>941321.1399999999</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
-      <c r="C29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="13">
         <f>+L6</f>
-        <v>1259130.0999999999</v>
+        <v>1264345.28</v>
       </c>
       <c r="G29" s="13">
         <f>+L13</f>
         <v>629565.05999999994</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="25">
         <f t="shared" si="3"/>
-        <v>1888695.1599999997</v>
+        <v>1893910.3399999999</v>
       </c>
       <c r="I29" s="20"/>
-      <c r="J29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="J29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="13">
         <f>+L7</f>
-        <v>1403217.5399999998</v>
+        <v>1278572.3999999999</v>
       </c>
       <c r="N29" s="13">
         <f>+L14</f>
         <v>701608.77999999991</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="25">
         <f t="shared" si="4"/>
-        <v>2104826.3199999998</v>
+        <v>1980181.1799999997</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="C30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="13">
         <f>+C6</f>
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="G30" s="13">
         <f>+D13</f>
         <v>289525.59999999998</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="25">
         <f t="shared" si="3"/>
-        <v>868576.79999999993</v>
+        <v>898731.64</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="J30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="13">
         <f>+C7</f>
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="N30" s="13">
         <f>+D14</f>
         <v>325261.53999999998</v>
       </c>
-      <c r="O30" s="28">
+      <c r="O30" s="25">
         <f t="shared" si="4"/>
-        <v>975784.60999999987</v>
+        <v>941321.1399999999</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
-      <c r="C31" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="C31" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="30">
+      <c r="H31" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="20"/>
-      <c r="J31" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="J31" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="30">
+      <c r="O31" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
-      <c r="C32" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="C32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="30">
+      <c r="H32" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="J32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="30">
+      <c r="O32" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
-      <c r="C33" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="13">
         <f>+L6</f>
-        <v>1259130.0999999999</v>
+        <v>1264345.28</v>
       </c>
       <c r="G33" s="13">
         <f>+L13</f>
         <v>629565.05999999994</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="25">
         <f t="shared" si="3"/>
-        <v>1888695.1599999997</v>
+        <v>1893910.3399999999</v>
       </c>
       <c r="I33" s="20"/>
-      <c r="J33" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="J33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="13">
         <f>+L7</f>
-        <v>1403217.5399999998</v>
+        <v>1278572.3999999999</v>
       </c>
       <c r="N33" s="13">
         <f>+L14</f>
         <v>701608.77999999991</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="25">
         <f t="shared" si="4"/>
-        <v>2104826.3199999998</v>
+        <v>1980181.1799999997</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
-      <c r="C34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="C34" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="13">
         <f>+C23</f>
-        <v>629565.04999999993</v>
+        <v>632172.64</v>
       </c>
       <c r="G34" s="13">
         <f>+K13</f>
         <v>314782.52999999997</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="25">
         <f t="shared" si="3"/>
-        <v>944347.57999999984</v>
+        <v>946955.16999999993</v>
       </c>
       <c r="I34" s="20"/>
-      <c r="J34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="J34" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="13">
         <f>+K7</f>
-        <v>701608.7699999999</v>
+        <v>639286.19999999995</v>
       </c>
       <c r="N34" s="13">
         <f>+K14</f>
         <v>350804.38999999996</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="25">
         <f t="shared" si="4"/>
-        <v>1052413.1599999999</v>
+        <v>990090.58999999985</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
-      <c r="C35" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="13">
         <f>+C6</f>
-        <v>579051.19999999995</v>
+        <v>609206.04</v>
       </c>
       <c r="G35" s="13">
         <f>+D13</f>
         <v>289525.59999999998</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="25">
         <f t="shared" si="3"/>
-        <v>868576.79999999993</v>
+        <v>898731.64</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="J35" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="13">
         <f>+C7</f>
-        <v>650523.06999999995</v>
+        <v>616059.6</v>
       </c>
       <c r="N35" s="13">
         <f>+D14</f>
         <v>325261.53999999998</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="25">
         <f t="shared" si="4"/>
-        <v>975784.60999999987</v>
+        <v>941321.1399999999</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33">
+      <c r="B36" s="27"/>
+      <c r="C36" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="28">
         <v>4692.47</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="33">
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="28">
         <v>4692.47</v>
       </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="34"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F38" s="5">
@@ -1796,16 +1765,23 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="J26:L26"/>
@@ -1813,18 +1789,11 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J30:L30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
